--- a/Data/cleaned_and_combined_data/Population/Norway_population_clean.xlsx
+++ b/Data/cleaned_and_combined_data/Population/Norway_population_clean.xlsx
@@ -1,55 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annakalesnikavathestrongest/Desktop/NTNUsemester2/TEP4290/Project/TEP4290_project/TEP4290_project/Population/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2374FE-ECC4-7849-B576-089E1472BB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -64,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,2565 +420,2573 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B319"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Population</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>1600</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>400000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1650</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>450000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>1735</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>616109</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>1736</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>622197</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>1737</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>626986</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>1738</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>630253</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>1739</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>634164</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>1740</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>637769</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>1741</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>634504</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>1742</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>621807</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>1743</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>613379</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>1744</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>615673</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>1745</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>622417</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>1746</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>629375</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>1747</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>634866</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>1748</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>637553</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>1749</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>639043</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>1750</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>641980</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>1751</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>645838</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>1752</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>650905</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>1753</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>657090</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>1754</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>664320</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>1755</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>670545</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>1756</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>676082</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>1757</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>683096</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>1758</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>690189</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>1759</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>695025</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>1760</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>700793</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>1761</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>708274</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>1762</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>715154</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>1763</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>716837</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>1764</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>717179</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>1765</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>720192</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>1766</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>722269</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>1767</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>726856</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>1768</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>733160</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>1769</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>739180</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>1770</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>745183</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>1771</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>750811</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>1772</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>753835</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>1773</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>744813</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="43">
+      <c r="A43" s="1" t="n">
         <v>1774</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>736347</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="44">
+      <c r="A44" s="1" t="n">
         <v>1775</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>740605</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="45">
+      <c r="A45" s="1" t="n">
         <v>1776</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>747275</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="46">
+      <c r="A46" s="1" t="n">
         <v>1777</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>754040</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="47">
+      <c r="A47" s="1" t="n">
         <v>1778</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>761668</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
+    <row r="48">
+      <c r="A48" s="1" t="n">
         <v>1779</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>767005</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="49">
+      <c r="A49" s="1" t="n">
         <v>1780</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>770747</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="50">
+      <c r="A50" s="1" t="n">
         <v>1781</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>776842</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="51">
+      <c r="A51" s="1" t="n">
         <v>1782</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>783433</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="52">
+      <c r="A52" s="1" t="n">
         <v>1783</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>787121</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="53">
+      <c r="A53" s="1" t="n">
         <v>1784</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>790144</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54">
+    <row r="54">
+      <c r="A54" s="1" t="n">
         <v>1785</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>790325</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55">
+    <row r="55">
+      <c r="A55" s="1" t="n">
         <v>1786</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>790390</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56">
+    <row r="56">
+      <c r="A56" s="1" t="n">
         <v>1787</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>794715</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57">
+    <row r="57">
+      <c r="A57" s="1" t="n">
         <v>1788</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>798418</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58">
+    <row r="58">
+      <c r="A58" s="1" t="n">
         <v>1789</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>799629</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59">
+    <row r="59">
+      <c r="A59" s="1" t="n">
         <v>1790</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>802666</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60">
+    <row r="60">
+      <c r="A60" s="1" t="n">
         <v>1791</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>809477</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61">
+    <row r="61">
+      <c r="A61" s="1" t="n">
         <v>1792</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>816914</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62">
+    <row r="62">
+      <c r="A62" s="1" t="n">
         <v>1793</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>825362</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63">
+    <row r="63">
+      <c r="A63" s="1" t="n">
         <v>1794</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>834803</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64">
+    <row r="64">
+      <c r="A64" s="1" t="n">
         <v>1795</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>843458</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65">
+    <row r="65">
+      <c r="A65" s="1" t="n">
         <v>1796</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>851048</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66">
+    <row r="66">
+      <c r="A66" s="1" t="n">
         <v>1797</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>858936</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67">
+    <row r="67">
+      <c r="A67" s="1" t="n">
         <v>1798</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>866771</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68">
+    <row r="68">
+      <c r="A68" s="1" t="n">
         <v>1799</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>875279</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69">
+    <row r="69">
+      <c r="A69" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>881499</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70">
+    <row r="70">
+      <c r="A70" s="1" t="n">
         <v>1801</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>882951</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71">
+    <row r="71">
+      <c r="A71" s="1" t="n">
         <v>1802</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>883284</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72">
+    <row r="72">
+      <c r="A72" s="1" t="n">
         <v>1803</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>885102</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73">
+    <row r="73">
+      <c r="A73" s="1" t="n">
         <v>1804</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>887760</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74">
+    <row r="74">
+      <c r="A74" s="1" t="n">
         <v>1805</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>892721</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75">
+    <row r="75">
+      <c r="A75" s="1" t="n">
         <v>1806</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>900193</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76">
+    <row r="76">
+      <c r="A76" s="1" t="n">
         <v>1807</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>906734</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77">
+    <row r="77">
+      <c r="A77" s="1" t="n">
         <v>1808</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>909830</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78">
+    <row r="78">
+      <c r="A78" s="1" t="n">
         <v>1809</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>903529</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79">
+    <row r="79">
+      <c r="A79" s="1" t="n">
         <v>1810</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>896479</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80">
+    <row r="80">
+      <c r="A80" s="1" t="n">
         <v>1811</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>896566</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81">
+    <row r="81">
+      <c r="A81" s="1" t="n">
         <v>1812</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>900332</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82">
+    <row r="82">
+      <c r="A82" s="1" t="n">
         <v>1813</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>901580</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83">
+    <row r="83">
+      <c r="A83" s="1" t="n">
         <v>1814</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>899999</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84">
+    <row r="84">
+      <c r="A84" s="1" t="n">
         <v>1815</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>904777</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85">
+    <row r="85">
+      <c r="A85" s="1" t="n">
         <v>1816</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>911996</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86">
+    <row r="86">
+      <c r="A86" s="1" t="n">
         <v>1817</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>926488</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87">
+    <row r="87">
+      <c r="A87" s="1" t="n">
         <v>1818</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>940301</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88">
+    <row r="88">
+      <c r="A88" s="1" t="n">
         <v>1819</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>951387</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89">
+    <row r="89">
+      <c r="A89" s="1" t="n">
         <v>1820</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>963065</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90">
+    <row r="90">
+      <c r="A90" s="1" t="n">
         <v>1821</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>977034</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91">
+    <row r="91">
+      <c r="A91" s="1" t="n">
         <v>1822</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>991073</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92">
+    <row r="92">
+      <c r="A92" s="1" t="n">
         <v>1823</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>1004521</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93">
+    <row r="93">
+      <c r="A93" s="1" t="n">
         <v>1824</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>1020938</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94">
+    <row r="94">
+      <c r="A94" s="1" t="n">
         <v>1825</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>1035345</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95">
+    <row r="95">
+      <c r="A95" s="1" t="n">
         <v>1826</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>1053000</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96">
+    <row r="96">
+      <c r="A96" s="1" t="n">
         <v>1827</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>1070784</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97">
+    <row r="97">
+      <c r="A97" s="1" t="n">
         <v>1828</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>1086318</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98">
+    <row r="98">
+      <c r="A98" s="1" t="n">
         <v>1829</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>1100255</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99">
+    <row r="99">
+      <c r="A99" s="1" t="n">
         <v>1830</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>1116466</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100">
+    <row r="100">
+      <c r="A100" s="1" t="n">
         <v>1831</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>1131000</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101">
+    <row r="101">
+      <c r="A101" s="1" t="n">
         <v>1832</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>1143834</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102">
+    <row r="102">
+      <c r="A102" s="1" t="n">
         <v>1833</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>1157091</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103">
+    <row r="103">
+      <c r="A103" s="1" t="n">
         <v>1834</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>1169264</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104">
+    <row r="104">
+      <c r="A104" s="1" t="n">
         <v>1835</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>1180259</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105">
+    <row r="105">
+      <c r="A105" s="1" t="n">
         <v>1836</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>1196000</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106">
+    <row r="106">
+      <c r="A106" s="1" t="n">
         <v>1837</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>1208808</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107">
+    <row r="107">
+      <c r="A107" s="1" t="n">
         <v>1838</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>1219007</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108">
+    <row r="108">
+      <c r="A108" s="1" t="n">
         <v>1839</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>1229319</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109">
+    <row r="109">
+      <c r="A109" s="1" t="n">
         <v>1840</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>1235924</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110">
+    <row r="110">
+      <c r="A110" s="1" t="n">
         <v>1841</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>1246355</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111">
+    <row r="111">
+      <c r="A111" s="1" t="n">
         <v>1842</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>1262454</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112">
+    <row r="112">
+      <c r="A112" s="1" t="n">
         <v>1843</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>1278739</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113">
+    <row r="113">
+      <c r="A113" s="1" t="n">
         <v>1844</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>1293646</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114">
+    <row r="114">
+      <c r="A114" s="1" t="n">
         <v>1845</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>1309898</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115">
+    <row r="115">
+      <c r="A115" s="1" t="n">
         <v>1846</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>1328471</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116">
+    <row r="116">
+      <c r="A116" s="1" t="n">
         <v>1847</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>1344984</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117">
+    <row r="117">
+      <c r="A117" s="1" t="n">
         <v>1848</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>1357678</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118">
+    <row r="118">
+      <c r="A118" s="1" t="n">
         <v>1849</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>1369089</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119">
+    <row r="119">
+      <c r="A119" s="1" t="n">
         <v>1850</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>1384149</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120">
+    <row r="120">
+      <c r="A120" s="1" t="n">
         <v>1851</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>1399733</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121">
+    <row r="121">
+      <c r="A121" s="1" t="n">
         <v>1852</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>1418073</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122">
+    <row r="122">
+      <c r="A122" s="1" t="n">
         <v>1853</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>1432870</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123">
+    <row r="123">
+      <c r="A123" s="1" t="n">
         <v>1854</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>1446641</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124">
+    <row r="124">
+      <c r="A124" s="1" t="n">
         <v>1855</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>1467398</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125">
+    <row r="125">
+      <c r="A125" s="1" t="n">
         <v>1856</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>1490047</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126">
+    <row r="126">
+      <c r="A126" s="1" t="n">
         <v>1857</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>1511175</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127">
+    <row r="127">
+      <c r="A127" s="1" t="n">
         <v>1858</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>1530312</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128">
+    <row r="128">
+      <c r="A128" s="1" t="n">
         <v>1859</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>1556076</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129">
+    <row r="129">
+      <c r="A129" s="1" t="n">
         <v>1860</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>1583525</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130">
+    <row r="130">
+      <c r="A130" s="1" t="n">
         <v>1861</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>1608653</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131">
+    <row r="131">
+      <c r="A131" s="1" t="n">
         <v>1862</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>1619102</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132">
+    <row r="132">
+      <c r="A132" s="1" t="n">
         <v>1863</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>1634869</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133">
+    <row r="133">
+      <c r="A133" s="1" t="n">
         <v>1864</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>1657997</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134">
+    <row r="134">
+      <c r="A134" s="1" t="n">
         <v>1865</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>1678510</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135">
+    <row r="135">
+      <c r="A135" s="1" t="n">
         <v>1866</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>1701756</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136">
+    <row r="136">
+      <c r="A136" s="1" t="n">
         <v>1867</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>1712787</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137">
+    <row r="137">
+      <c r="A137" s="1" t="n">
         <v>1868</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>1720933</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138">
+    <row r="138">
+      <c r="A138" s="1" t="n">
         <v>1869</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="n">
         <v>1729242</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139">
+    <row r="139">
+      <c r="A139" s="1" t="n">
         <v>1870</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="n">
         <v>1732655</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140">
+    <row r="140">
+      <c r="A140" s="1" t="n">
         <v>1871</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="n">
         <v>1741162</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141">
+    <row r="141">
+      <c r="A141" s="1" t="n">
         <v>1872</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="n">
         <v>1751544</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142">
+    <row r="142">
+      <c r="A142" s="1" t="n">
         <v>1873</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="n">
         <v>1762313</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143">
+    <row r="143">
+      <c r="A143" s="1" t="n">
         <v>1874</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="n">
         <v>1776528</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144">
+    <row r="144">
+      <c r="A144" s="1" t="n">
         <v>1875</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="n">
         <v>1796752</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145">
+    <row r="145">
+      <c r="A145" s="1" t="n">
         <v>1876</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="n">
         <v>1818853</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146">
+    <row r="146">
+      <c r="A146" s="1" t="n">
         <v>1877</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="n">
         <v>1838858</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147">
+    <row r="147">
+      <c r="A147" s="1" t="n">
         <v>1878</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="n">
         <v>1864285</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148">
+    <row r="148">
+      <c r="A148" s="1" t="n">
         <v>1879</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="n">
         <v>1889385</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149">
+    <row r="149">
+      <c r="A149" s="1" t="n">
         <v>1880</v>
       </c>
-      <c r="B149">
+      <c r="B149" t="n">
         <v>1914867</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150">
+    <row r="150">
+      <c r="A150" s="1" t="n">
         <v>1881</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="n">
         <v>1923283</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151">
+    <row r="151">
+      <c r="A151" s="1" t="n">
         <v>1882</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="n">
         <v>1922613</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152">
+    <row r="152">
+      <c r="A152" s="1" t="n">
         <v>1883</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="n">
         <v>1916921</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153">
+    <row r="153">
+      <c r="A153" s="1" t="n">
         <v>1884</v>
       </c>
-      <c r="B153">
+      <c r="B153" t="n">
         <v>1921712</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154">
+    <row r="154">
+      <c r="A154" s="1" t="n">
         <v>1885</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="n">
         <v>1936404</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155">
+    <row r="155">
+      <c r="A155" s="1" t="n">
         <v>1886</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="n">
         <v>1951429</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156">
+    <row r="156">
+      <c r="A156" s="1" t="n">
         <v>1887</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="n">
         <v>1965217</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157">
+    <row r="157">
+      <c r="A157" s="1" t="n">
         <v>1888</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="n">
         <v>1974396</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158">
+    <row r="158">
+      <c r="A158" s="1" t="n">
         <v>1889</v>
       </c>
-      <c r="B158">
+      <c r="B158" t="n">
         <v>1978834</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159">
+    <row r="159">
+      <c r="A159" s="1" t="n">
         <v>1890</v>
       </c>
-      <c r="B159">
+      <c r="B159" t="n">
         <v>1989756</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160">
+    <row r="160">
+      <c r="A160" s="1" t="n">
         <v>1891</v>
       </c>
-      <c r="B160">
+      <c r="B160" t="n">
         <v>2004102</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161">
+    <row r="161">
+      <c r="A161" s="1" t="n">
         <v>1892</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="n">
         <v>2020905</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162">
+    <row r="162">
+      <c r="A162" s="1" t="n">
         <v>1893</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="n">
         <v>2031127</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163">
+    <row r="163">
+      <c r="A163" s="1" t="n">
         <v>1894</v>
       </c>
-      <c r="B163">
+      <c r="B163" t="n">
         <v>2044466</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164">
+    <row r="164">
+      <c r="A164" s="1" t="n">
         <v>1895</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="n">
         <v>2068848</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165">
+    <row r="165">
+      <c r="A165" s="1" t="n">
         <v>1896</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="n">
         <v>2097328</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166">
+    <row r="166">
+      <c r="A166" s="1" t="n">
         <v>1897</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="n">
         <v>2126024</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167">
+    <row r="167">
+      <c r="A167" s="1" t="n">
         <v>1898</v>
       </c>
-      <c r="B167">
+      <c r="B167" t="n">
         <v>2157418</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168">
+    <row r="168">
+      <c r="A168" s="1" t="n">
         <v>1899</v>
       </c>
-      <c r="B168">
+      <c r="B168" t="n">
         <v>2190196</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169">
+    <row r="169">
+      <c r="A169" s="1" t="n">
         <v>1900</v>
       </c>
-      <c r="B169">
+      <c r="B169" t="n">
         <v>2217971</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170">
+    <row r="170">
+      <c r="A170" s="1" t="n">
         <v>1901</v>
       </c>
-      <c r="B170">
+      <c r="B170" t="n">
         <v>2242995</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171">
+    <row r="171">
+      <c r="A171" s="1" t="n">
         <v>1902</v>
       </c>
-      <c r="B171">
+      <c r="B171" t="n">
         <v>2266827</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172">
+    <row r="172">
+      <c r="A172" s="1" t="n">
         <v>1903</v>
       </c>
-      <c r="B172">
+      <c r="B172" t="n">
         <v>2284143</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173">
+    <row r="173">
+      <c r="A173" s="1" t="n">
         <v>1904</v>
       </c>
-      <c r="B173">
+      <c r="B173" t="n">
         <v>2291392</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174">
+    <row r="174">
+      <c r="A174" s="1" t="n">
         <v>1905</v>
       </c>
-      <c r="B174">
+      <c r="B174" t="n">
         <v>2303595</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175">
+    <row r="175">
+      <c r="A175" s="1" t="n">
         <v>1906</v>
       </c>
-      <c r="B175">
+      <c r="B175" t="n">
         <v>2313549</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176">
+    <row r="176">
+      <c r="A176" s="1" t="n">
         <v>1907</v>
       </c>
-      <c r="B176">
+      <c r="B176" t="n">
         <v>2324832</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177">
+    <row r="177">
+      <c r="A177" s="1" t="n">
         <v>1908</v>
       </c>
-      <c r="B177">
+      <c r="B177" t="n">
         <v>2333092</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178">
+    <row r="178">
+      <c r="A178" s="1" t="n">
         <v>1909</v>
       </c>
-      <c r="B178">
+      <c r="B178" t="n">
         <v>2358036</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179">
+    <row r="179">
+      <c r="A179" s="1" t="n">
         <v>1910</v>
       </c>
-      <c r="B179">
+      <c r="B179" t="n">
         <v>2376952</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180">
+    <row r="180">
+      <c r="A180" s="1" t="n">
         <v>1911</v>
       </c>
-      <c r="B180">
+      <c r="B180" t="n">
         <v>2390402</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181">
+    <row r="181">
+      <c r="A181" s="1" t="n">
         <v>1912</v>
       </c>
-      <c r="B181">
+      <c r="B181" t="n">
         <v>2411190</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182">
+    <row r="182">
+      <c r="A182" s="1" t="n">
         <v>1913</v>
       </c>
-      <c r="B182">
+      <c r="B182" t="n">
         <v>2435178</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183">
+    <row r="183">
+      <c r="A183" s="1" t="n">
         <v>1914</v>
       </c>
-      <c r="B183">
+      <c r="B183" t="n">
         <v>2458569</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184">
+    <row r="184">
+      <c r="A184" s="1" t="n">
         <v>1915</v>
       </c>
-      <c r="B184">
+      <c r="B184" t="n">
         <v>2486269</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185">
+    <row r="185">
+      <c r="A185" s="1" t="n">
         <v>1916</v>
       </c>
-      <c r="B185">
+      <c r="B185" t="n">
         <v>2509263</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186">
+    <row r="186">
+      <c r="A186" s="1" t="n">
         <v>1917</v>
       </c>
-      <c r="B186">
+      <c r="B186" t="n">
         <v>2535092</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187">
+    <row r="187">
+      <c r="A187" s="1" t="n">
         <v>1918</v>
       </c>
-      <c r="B187">
+      <c r="B187" t="n">
         <v>2565994</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188">
+    <row r="188">
+      <c r="A188" s="1" t="n">
         <v>1919</v>
       </c>
-      <c r="B188">
+      <c r="B188" t="n">
         <v>2589463</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189">
+    <row r="189">
+      <c r="A189" s="1" t="n">
         <v>1920</v>
       </c>
-      <c r="B189">
+      <c r="B189" t="n">
         <v>2616274</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190">
+    <row r="190">
+      <c r="A190" s="1" t="n">
         <v>1921</v>
       </c>
-      <c r="B190">
+      <c r="B190" t="n">
         <v>2653054</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191">
+    <row r="191">
+      <c r="A191" s="1" t="n">
         <v>1922</v>
       </c>
-      <c r="B191">
+      <c r="B191" t="n">
         <v>2682680</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192">
+    <row r="192">
+      <c r="A192" s="1" t="n">
         <v>1923</v>
       </c>
-      <c r="B192">
+      <c r="B192" t="n">
         <v>2707000</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193">
+    <row r="193">
+      <c r="A193" s="1" t="n">
         <v>1924</v>
       </c>
-      <c r="B193">
+      <c r="B193" t="n">
         <v>2719233</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194">
+    <row r="194">
+      <c r="A194" s="1" t="n">
         <v>1925</v>
       </c>
-      <c r="B194">
+      <c r="B194" t="n">
         <v>2738298</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195">
+    <row r="195">
+      <c r="A195" s="1" t="n">
         <v>1926</v>
       </c>
-      <c r="B195">
+      <c r="B195" t="n">
         <v>2755331</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196">
+    <row r="196">
+      <c r="A196" s="1" t="n">
         <v>1927</v>
       </c>
-      <c r="B196">
+      <c r="B196" t="n">
         <v>2770880</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197">
+    <row r="197">
+      <c r="A197" s="1" t="n">
         <v>1928</v>
       </c>
-      <c r="B197">
+      <c r="B197" t="n">
         <v>2778851</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198">
+    <row r="198">
+      <c r="A198" s="1" t="n">
         <v>1929</v>
       </c>
-      <c r="B198">
+      <c r="B198" t="n">
         <v>2790497</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199">
+    <row r="199">
+      <c r="A199" s="1" t="n">
         <v>1930</v>
       </c>
-      <c r="B199">
+      <c r="B199" t="n">
         <v>2799713</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200">
+    <row r="200">
+      <c r="A200" s="1" t="n">
         <v>1931</v>
       </c>
-      <c r="B200">
+      <c r="B200" t="n">
         <v>2815164</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201">
+    <row r="201">
+      <c r="A201" s="1" t="n">
         <v>1932</v>
       </c>
-      <c r="B201">
+      <c r="B201" t="n">
         <v>2832599</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202">
+    <row r="202">
+      <c r="A202" s="1" t="n">
         <v>1933</v>
       </c>
-      <c r="B202">
+      <c r="B202" t="n">
         <v>2850457</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203">
+    <row r="203">
+      <c r="A203" s="1" t="n">
         <v>1934</v>
       </c>
-      <c r="B203">
+      <c r="B203" t="n">
         <v>2866229</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204">
+    <row r="204">
+      <c r="A204" s="1" t="n">
         <v>1935</v>
       </c>
-      <c r="B204">
+      <c r="B204" t="n">
         <v>2882182</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205">
+    <row r="205">
+      <c r="A205" s="1" t="n">
         <v>1936</v>
       </c>
-      <c r="B205">
+      <c r="B205" t="n">
         <v>2896239</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206">
+    <row r="206">
+      <c r="A206" s="1" t="n">
         <v>1937</v>
       </c>
-      <c r="B206">
+      <c r="B206" t="n">
         <v>2910798</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207">
+    <row r="207">
+      <c r="A207" s="1" t="n">
         <v>1938</v>
       </c>
-      <c r="B207">
+      <c r="B207" t="n">
         <v>2926686</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208">
+    <row r="208">
+      <c r="A208" s="1" t="n">
         <v>1939</v>
       </c>
-      <c r="B208">
+      <c r="B208" t="n">
         <v>2944920</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209">
+    <row r="209">
+      <c r="A209" s="1" t="n">
         <v>1940</v>
       </c>
-      <c r="B209">
+      <c r="B209" t="n">
         <v>2963909</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210">
+    <row r="210">
+      <c r="A210" s="1" t="n">
         <v>1941</v>
       </c>
-      <c r="B210">
+      <c r="B210" t="n">
         <v>2982224</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211">
+    <row r="211">
+      <c r="A211" s="1" t="n">
         <v>1942</v>
       </c>
-      <c r="B211">
+      <c r="B211" t="n">
         <v>2998244</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212">
+    <row r="212">
+      <c r="A212" s="1" t="n">
         <v>1943</v>
       </c>
-      <c r="B212">
+      <c r="B212" t="n">
         <v>3019521</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213">
+    <row r="213">
+      <c r="A213" s="1" t="n">
         <v>1944</v>
       </c>
-      <c r="B213">
+      <c r="B213" t="n">
         <v>3045337</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214">
+    <row r="214">
+      <c r="A214" s="1" t="n">
         <v>1945</v>
       </c>
-      <c r="B214">
+      <c r="B214" t="n">
         <v>3075084</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215">
+    <row r="215">
+      <c r="A215" s="1" t="n">
         <v>1946</v>
       </c>
-      <c r="B215">
+      <c r="B215" t="n">
         <v>3107269</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216">
+    <row r="216">
+      <c r="A216" s="1" t="n">
         <v>1947</v>
       </c>
-      <c r="B216">
+      <c r="B216" t="n">
         <v>3146497</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217">
+    <row r="217">
+      <c r="A217" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="B217">
+      <c r="B217" t="n">
         <v>3183525</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218">
+    <row r="218">
+      <c r="A218" s="1" t="n">
         <v>1949</v>
       </c>
-      <c r="B218">
+      <c r="B218" t="n">
         <v>3218499</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219">
+    <row r="219">
+      <c r="A219" s="1" t="n">
         <v>1950</v>
       </c>
-      <c r="B219">
+      <c r="B219" t="n">
         <v>3249954</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220">
+    <row r="220">
+      <c r="A220" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="B220">
+      <c r="B220" t="n">
         <v>3280296</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221">
+    <row r="221">
+      <c r="A221" s="1" t="n">
         <v>1952</v>
       </c>
-      <c r="B221">
+      <c r="B221" t="n">
         <v>3311446</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222">
+    <row r="222">
+      <c r="A222" s="1" t="n">
         <v>1953</v>
       </c>
-      <c r="B222">
+      <c r="B222" t="n">
         <v>3344010</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223">
+    <row r="223">
+      <c r="A223" s="1" t="n">
         <v>1954</v>
       </c>
-      <c r="B223">
+      <c r="B223" t="n">
         <v>3377766</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224">
+    <row r="224">
+      <c r="A224" s="1" t="n">
         <v>1955</v>
       </c>
-      <c r="B224">
+      <c r="B224" t="n">
         <v>3410726</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225">
+    <row r="225">
+      <c r="A225" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="B225">
+      <c r="B225" t="n">
         <v>3445673</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226">
+    <row r="226">
+      <c r="A226" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="B226">
+      <c r="B226" t="n">
         <v>3475890</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227">
+    <row r="227">
+      <c r="A227" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="B227">
+      <c r="B227" t="n">
         <v>3507986</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228">
+    <row r="228">
+      <c r="A228" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="B228">
+      <c r="B228" t="n">
         <v>3538001</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229">
+    <row r="229">
+      <c r="A229" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="B229">
+      <c r="B229" t="n">
         <v>3567707</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230">
+    <row r="230">
+      <c r="A230" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="B230">
+      <c r="B230" t="n">
         <v>3594771</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231">
+    <row r="231">
+      <c r="A231" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="B231">
+      <c r="B231" t="n">
         <v>3624829</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232">
+    <row r="232">
+      <c r="A232" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="B232">
+      <c r="B232" t="n">
         <v>3653006</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233">
+    <row r="233">
+      <c r="A233" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="B233">
+      <c r="B233" t="n">
         <v>3680068</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234">
+    <row r="234">
+      <c r="A234" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="B234">
+      <c r="B234" t="n">
         <v>3708609</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235">
+    <row r="235">
+      <c r="A235" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="B235">
+      <c r="B235" t="n">
         <v>3737726</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236">
+    <row r="236">
+      <c r="A236" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="B236">
+      <c r="B236" t="n">
         <v>3768298</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237">
+    <row r="237">
+      <c r="A237" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="B237">
+      <c r="B237" t="n">
         <v>3800780</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238">
+    <row r="238">
+      <c r="A238" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="B238">
+      <c r="B238" t="n">
         <v>3832192</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239">
+    <row r="239">
+      <c r="A239" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="B239">
+      <c r="B239" t="n">
         <v>3863221</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240">
+    <row r="240">
+      <c r="A240" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="B240">
+      <c r="B240" t="n">
         <v>3888305</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241">
+    <row r="241">
+      <c r="A241" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="B241">
+      <c r="B241" t="n">
         <v>3917773</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242">
+    <row r="242">
+      <c r="A242" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="B242">
+      <c r="B242" t="n">
         <v>3948235</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243">
+    <row r="243">
+      <c r="A243" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="B243">
+      <c r="B243" t="n">
         <v>3972990</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244">
+    <row r="244">
+      <c r="A244" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="B244">
+      <c r="B244" t="n">
         <v>3997525</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245">
+    <row r="245">
+      <c r="A245" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="B245">
+      <c r="B245" t="n">
         <v>4017101</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246">
+    <row r="246">
+      <c r="A246" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="B246">
+      <c r="B246" t="n">
         <v>4035202</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247">
+    <row r="247">
+      <c r="A247" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="B247">
+      <c r="B247" t="n">
         <v>4051208</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248">
+    <row r="248">
+      <c r="A248" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="B248">
+      <c r="B248" t="n">
         <v>4066134</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249">
+    <row r="249">
+      <c r="A249" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="B249">
+      <c r="B249" t="n">
         <v>4078900</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250">
+    <row r="250">
+      <c r="A250" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="B250">
+      <c r="B250" t="n">
         <v>4092340</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251">
+    <row r="251">
+      <c r="A251" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="B251">
+      <c r="B251" t="n">
         <v>4107063</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252">
+    <row r="252">
+      <c r="A252" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="B252">
+      <c r="B252" t="n">
         <v>4122511</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253">
+    <row r="253">
+      <c r="A253" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="B253">
+      <c r="B253" t="n">
         <v>4134353</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254">
+    <row r="254">
+      <c r="A254" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="B254">
+      <c r="B254" t="n">
         <v>4145845</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255">
+    <row r="255">
+      <c r="A255" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="B255">
+      <c r="B255" t="n">
         <v>4159187</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256">
+    <row r="256">
+      <c r="A256" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="B256">
+      <c r="B256" t="n">
         <v>4175521</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A257">
+    <row r="257">
+      <c r="A257" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="B257">
+      <c r="B257" t="n">
         <v>4198289</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A258">
+    <row r="258">
+      <c r="A258" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="B258">
+      <c r="B258" t="n">
         <v>4220686</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A259">
+    <row r="259">
+      <c r="A259" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="B259">
+      <c r="B259" t="n">
         <v>4233116</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A260">
+    <row r="260">
+      <c r="A260" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="B260">
+      <c r="B260" t="n">
         <v>4249830</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A261">
+    <row r="261">
+      <c r="A261" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="B261">
+      <c r="B261" t="n">
         <v>4273634</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262">
+    <row r="262">
+      <c r="A262" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="B262">
+      <c r="B262" t="n">
         <v>4299167</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A263">
+    <row r="263">
+      <c r="A263" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="B263">
+      <c r="B263" t="n">
         <v>4324815</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A264">
+    <row r="264">
+      <c r="A264" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="B264">
+      <c r="B264" t="n">
         <v>4348410</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A265">
+    <row r="265">
+      <c r="A265" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="B265">
+      <c r="B265" t="n">
         <v>4369957</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A266">
+    <row r="266">
+      <c r="A266" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="B266">
+      <c r="B266" t="n">
         <v>4392714</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A267">
+    <row r="267">
+      <c r="A267" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="B267">
+      <c r="B267" t="n">
         <v>4417599</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268">
+    <row r="268">
+      <c r="A268" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="B268">
+      <c r="B268" t="n">
         <v>4445329</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A269">
+    <row r="269">
+      <c r="A269" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B269">
+      <c r="B269" t="n">
         <v>4478497</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A270">
+    <row r="270">
+      <c r="A270" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="B270">
+      <c r="B270" t="n">
         <v>4503436</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A271">
+    <row r="271">
+      <c r="A271" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B271">
+      <c r="B271" t="n">
         <v>4524066</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A272">
+    <row r="272">
+      <c r="A272" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="B272">
+      <c r="B272" t="n">
         <v>4552252</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273">
+    <row r="273">
+      <c r="A273" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="B273">
+      <c r="B273" t="n">
         <v>4577457</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A274">
+    <row r="274">
+      <c r="A274" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="B274">
+      <c r="B274" t="n">
         <v>4606363</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A275">
+    <row r="275">
+      <c r="A275" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="B275">
+      <c r="B275" t="n">
         <v>4640219</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A276">
+    <row r="276">
+      <c r="A276" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="B276">
+      <c r="B276" t="n">
         <v>4681134</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A277">
+    <row r="277">
+      <c r="A277" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B277">
+      <c r="B277" t="n">
         <v>4737171</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278">
+    <row r="278">
+      <c r="A278" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="B278">
+      <c r="B278" t="n">
         <v>4799252</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279">
+    <row r="279">
+      <c r="A279" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="B279">
+      <c r="B279" t="n">
         <v>4858199</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280">
+    <row r="280">
+      <c r="A280" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="B280">
+      <c r="B280" t="n">
         <v>4920305</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A281">
+    <row r="281">
+      <c r="A281" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="B281">
+      <c r="B281" t="n">
         <v>4985870</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A282">
+    <row r="282">
+      <c r="A282" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="B282">
+      <c r="B282" t="n">
         <v>5051275</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A283">
+    <row r="283">
+      <c r="A283" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="B283">
+      <c r="B283" t="n">
         <v>5109056</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A284">
+    <row r="284">
+      <c r="A284" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="B284">
+      <c r="B284" t="n">
         <v>5165802</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A285">
+    <row r="285">
+      <c r="A285" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B285">
+      <c r="B285" t="n">
         <v>5213985</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A286">
+    <row r="286">
+      <c r="A286" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B286">
+      <c r="B286" t="n">
         <v>5258317</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A287">
+    <row r="287">
+      <c r="A287" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B287">
+      <c r="B287" t="n">
         <v>5295619</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A288">
+    <row r="288">
+      <c r="A288" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B288">
+      <c r="B288" t="n">
         <v>5328212</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289">
+    <row r="289">
+      <c r="A289" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="B289">
+      <c r="B289" t="n">
         <v>5367580</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290">
+    <row r="290">
+      <c r="A290" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="B290">
+      <c r="B290" t="n">
         <v>5391369</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291">
+    <row r="291">
+      <c r="A291" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="B291">
+      <c r="B291" t="n">
         <v>5425270</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292">
+    <row r="292">
+      <c r="A292" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="B292">
-        <v>5478521</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293">
+      <c r="B292" t="n">
+        <v>5488984</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B293">
-        <v>5514147.666666667</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294">
+      <c r="B293" t="n">
+        <v>5464158</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
         <v>2025</v>
       </c>
-      <c r="B294">
-        <v>5541672</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295">
+      <c r="B294" t="n">
+        <v>5473495</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
         <v>2026</v>
       </c>
-      <c r="B295">
-        <v>5566285</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296">
+      <c r="B295" t="n">
+        <v>5482414</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
         <v>2027</v>
       </c>
-      <c r="B296">
-        <v>5591075.333333333</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297">
+      <c r="B296" t="n">
+        <v>5490340</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
         <v>2028</v>
       </c>
-      <c r="B297">
-        <v>5616044.333333333</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298">
+      <c r="B297" t="n">
+        <v>5497527</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
         <v>2029</v>
       </c>
-      <c r="B298">
-        <v>5641063.666666667</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299">
+      <c r="B298" t="n">
+        <v>5503826</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
         <v>2030</v>
       </c>
-      <c r="B299">
-        <v>5665720.333333333</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300">
+      <c r="B299" t="n">
+        <v>5508990</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
         <v>2031</v>
       </c>
-      <c r="B300">
-        <v>5689915</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301">
+      <c r="B300" t="n">
+        <v>5512969</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
         <v>2032</v>
       </c>
-      <c r="B301">
-        <v>5713446.333333333</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302">
+      <c r="B301" t="n">
+        <v>5515632</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
         <v>2033</v>
       </c>
-      <c r="B302">
-        <v>5736551</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303">
+      <c r="B302" t="n">
+        <v>5517185</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
         <v>2034</v>
       </c>
-      <c r="B303">
-        <v>5759259</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304">
+      <c r="B303" t="n">
+        <v>5517705</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
         <v>2035</v>
       </c>
-      <c r="B304">
-        <v>5781382.666666667</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A305">
+      <c r="B304" t="n">
+        <v>5517010</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
         <v>2036</v>
       </c>
-      <c r="B305">
-        <v>5802958.333333333</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A306">
+      <c r="B305" t="n">
+        <v>5515037</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
         <v>2037</v>
       </c>
-      <c r="B306">
-        <v>5824182</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A307">
+      <c r="B306" t="n">
+        <v>5512045</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
         <v>2038</v>
       </c>
-      <c r="B307">
-        <v>5844880.666666667</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308">
+      <c r="B307" t="n">
+        <v>5507972</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
         <v>2039</v>
       </c>
-      <c r="B308">
-        <v>5864778.333333333</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309">
+      <c r="B308" t="n">
+        <v>5502793</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
         <v>2040</v>
       </c>
-      <c r="B309">
-        <v>5883892.333333333</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310">
+      <c r="B309" t="n">
+        <v>5496740</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
         <v>2041</v>
       </c>
-      <c r="B310">
-        <v>5902266.666666667</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311">
+      <c r="B310" t="n">
+        <v>5489938</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
         <v>2042</v>
       </c>
-      <c r="B311">
-        <v>5919932.333333333</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312">
+      <c r="B311" t="n">
+        <v>5482140</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
         <v>2043</v>
       </c>
-      <c r="B312">
-        <v>5936787.666666667</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A313">
+      <c r="B312" t="n">
+        <v>5473327</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
         <v>2044</v>
       </c>
-      <c r="B313">
-        <v>5952992.333333333</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A314">
+      <c r="B313" t="n">
+        <v>5463902</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
         <v>2045</v>
       </c>
-      <c r="B314">
-        <v>5968284.333333333</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A315">
+      <c r="B314" t="n">
+        <v>5453460</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
         <v>2046</v>
       </c>
-      <c r="B315">
-        <v>5982917</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A316">
+      <c r="B315" t="n">
+        <v>5442148</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
         <v>2047</v>
       </c>
-      <c r="B316">
-        <v>5996758.666666667</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317">
+      <c r="B316" t="n">
+        <v>5429952</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
         <v>2048</v>
       </c>
-      <c r="B317">
-        <v>6009663</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318">
+      <c r="B317" t="n">
+        <v>5416499</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
         <v>2049</v>
       </c>
-      <c r="B318">
-        <v>6021830.333333333</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319">
+      <c r="B318" t="n">
+        <v>5402030</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
         <v>2050</v>
       </c>
-      <c r="B319">
-        <v>6033319.333333333</v>
+      <c r="B319" t="n">
+        <v>5386454</v>
       </c>
     </row>
   </sheetData>
